--- a/Zmays_B73/05_excel/dn18a.xlsx
+++ b/Zmays_B73/05_excel/dn18a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/51F2AC95-5ED2-40C2-B91A-B9DF1D0FE8B1/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/91FC83F9-D086-403B-8198-F4013BBC52E1/192.168.10.18/disk6/pzhou/projects/barn/Zmays_B73/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28BC7B-3A85-9F42-B345-55271C0B991B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFB2D3-1E7F-FA4D-A6D0-F33890FE774B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="17360" yWindow="9740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="309">
   <si>
     <t>SampleID</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t>/home/hirschc1/shared/reads_for_SRA_submission/BiomAP_reseq/JGI.280313.D1T24ACXX/6779.4.54423.GTGAAA.fastq.gz</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -1297,11 +1303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1315,7 @@
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,19 +1332,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1348,14 +1357,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1365,14 +1377,17 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1382,14 +1397,17 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1399,14 +1417,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1416,14 +1437,17 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1433,14 +1457,17 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
       <c r="G7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1450,14 +1477,17 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
       <c r="G8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1467,14 +1497,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
       <c r="G9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1484,14 +1517,17 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
       <c r="G10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1501,14 +1537,17 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
       <c r="G11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1518,14 +1557,17 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>40</v>
       </c>
       <c r="G12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1535,14 +1577,17 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
       <c r="G13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1552,14 +1597,17 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>46</v>
       </c>
       <c r="G14" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1569,14 +1617,17 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>49</v>
       </c>
       <c r="G15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1586,14 +1637,17 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>52</v>
       </c>
       <c r="G16" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1603,14 +1657,17 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>55</v>
       </c>
       <c r="G17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1620,14 +1677,17 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>58</v>
       </c>
       <c r="G18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1637,14 +1697,17 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>61</v>
       </c>
       <c r="G19" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1654,14 +1717,17 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>64</v>
       </c>
       <c r="G20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1671,14 +1737,17 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>67</v>
       </c>
       <c r="G21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1688,14 +1757,17 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>70</v>
       </c>
       <c r="G22" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1705,14 +1777,17 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>73</v>
       </c>
       <c r="G23" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1722,14 +1797,17 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>76</v>
       </c>
       <c r="G24" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1739,14 +1817,17 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>79</v>
       </c>
       <c r="G25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1756,14 +1837,17 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>82</v>
       </c>
       <c r="G26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1773,14 +1857,17 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>85</v>
       </c>
       <c r="G27" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1790,14 +1877,17 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>88</v>
       </c>
       <c r="G28" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1807,14 +1897,17 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>91</v>
       </c>
       <c r="G29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -1824,14 +1917,17 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>94</v>
       </c>
       <c r="G30" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -1841,14 +1937,17 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>97</v>
       </c>
       <c r="G31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -1858,14 +1957,17 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>100</v>
       </c>
       <c r="G32" t="s">
+        <v>307</v>
+      </c>
+      <c r="H32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -1875,14 +1977,17 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>103</v>
       </c>
       <c r="G33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -1892,14 +1997,17 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>106</v>
       </c>
       <c r="G34" t="s">
+        <v>307</v>
+      </c>
+      <c r="H34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -1909,14 +2017,17 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>109</v>
       </c>
       <c r="G35" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -1926,14 +2037,17 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>112</v>
       </c>
       <c r="G36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -1943,14 +2057,17 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="F37" t="s">
+        <v>115</v>
       </c>
       <c r="G37" t="s">
+        <v>307</v>
+      </c>
+      <c r="H37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -1960,14 +2077,17 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="F38" t="s">
+        <v>118</v>
       </c>
       <c r="G38" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1977,14 +2097,17 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>121</v>
       </c>
       <c r="G39" t="s">
+        <v>307</v>
+      </c>
+      <c r="H39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -1994,14 +2117,17 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>124</v>
       </c>
       <c r="G40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -2011,14 +2137,17 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>127</v>
       </c>
       <c r="G41" t="s">
+        <v>307</v>
+      </c>
+      <c r="H41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -2028,14 +2157,17 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>130</v>
       </c>
       <c r="G42" t="s">
+        <v>307</v>
+      </c>
+      <c r="H42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2045,14 +2177,17 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>133</v>
       </c>
       <c r="G43" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -2062,14 +2197,17 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>136</v>
       </c>
       <c r="G44" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2079,14 +2217,17 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>139</v>
       </c>
       <c r="G45" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2096,14 +2237,17 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>142</v>
       </c>
       <c r="G46" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -2113,14 +2257,17 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>145</v>
       </c>
       <c r="G47" t="s">
+        <v>307</v>
+      </c>
+      <c r="H47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -2130,14 +2277,17 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
+      <c r="F48" t="s">
+        <v>148</v>
       </c>
       <c r="G48" t="s">
+        <v>307</v>
+      </c>
+      <c r="H48" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -2147,14 +2297,17 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>151</v>
       </c>
       <c r="G49" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -2164,14 +2317,17 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="b">
-        <v>1</v>
+      <c r="F50" t="s">
+        <v>154</v>
       </c>
       <c r="G50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -2181,14 +2337,17 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
+      <c r="F51" t="s">
+        <v>157</v>
       </c>
       <c r="G51" t="s">
+        <v>307</v>
+      </c>
+      <c r="H51" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -2198,14 +2357,17 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
+      <c r="F52" t="s">
+        <v>160</v>
       </c>
       <c r="G52" t="s">
+        <v>307</v>
+      </c>
+      <c r="H52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -2215,14 +2377,17 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
+      <c r="F53" t="s">
+        <v>163</v>
       </c>
       <c r="G53" t="s">
+        <v>307</v>
+      </c>
+      <c r="H53" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -2232,14 +2397,17 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
+      <c r="F54" t="s">
+        <v>166</v>
       </c>
       <c r="G54" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -2249,14 +2417,17 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
+      <c r="F55" t="s">
+        <v>169</v>
       </c>
       <c r="G55" t="s">
+        <v>307</v>
+      </c>
+      <c r="H55" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -2266,14 +2437,17 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
+      <c r="F56" t="s">
+        <v>172</v>
       </c>
       <c r="G56" t="s">
+        <v>307</v>
+      </c>
+      <c r="H56" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -2283,14 +2457,17 @@
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="b">
-        <v>1</v>
+      <c r="F57" t="s">
+        <v>121</v>
       </c>
       <c r="G57" t="s">
+        <v>307</v>
+      </c>
+      <c r="H57" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -2300,14 +2477,17 @@
       <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
+      <c r="F58" t="s">
+        <v>151</v>
       </c>
       <c r="G58" t="s">
+        <v>307</v>
+      </c>
+      <c r="H58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -2317,14 +2497,17 @@
       <c r="E59">
         <v>3</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
+      <c r="F59" t="s">
+        <v>151</v>
       </c>
       <c r="G59" t="s">
+        <v>307</v>
+      </c>
+      <c r="H59" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -2334,14 +2517,17 @@
       <c r="E60">
         <v>2</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
+      <c r="F60" t="s">
+        <v>154</v>
       </c>
       <c r="G60" t="s">
+        <v>307</v>
+      </c>
+      <c r="H60" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -2351,14 +2537,17 @@
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="F61" t="b">
-        <v>1</v>
+      <c r="F61" t="s">
+        <v>154</v>
       </c>
       <c r="G61" t="s">
+        <v>307</v>
+      </c>
+      <c r="H61" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -2368,14 +2557,17 @@
       <c r="E62">
         <v>2</v>
       </c>
-      <c r="F62" t="b">
-        <v>1</v>
+      <c r="F62" t="s">
+        <v>157</v>
       </c>
       <c r="G62" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -2385,14 +2577,17 @@
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" t="b">
-        <v>1</v>
+      <c r="F63" t="s">
+        <v>157</v>
       </c>
       <c r="G63" t="s">
+        <v>307</v>
+      </c>
+      <c r="H63" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2402,14 +2597,17 @@
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" t="b">
-        <v>1</v>
+      <c r="F64" t="s">
+        <v>100</v>
       </c>
       <c r="G64" t="s">
+        <v>307</v>
+      </c>
+      <c r="H64" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -2419,14 +2617,17 @@
       <c r="E65">
         <v>2</v>
       </c>
-      <c r="F65" t="b">
-        <v>1</v>
+      <c r="F65" t="s">
+        <v>103</v>
       </c>
       <c r="G65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H65" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>192</v>
       </c>
@@ -2436,14 +2637,17 @@
       <c r="E66">
         <v>3</v>
       </c>
-      <c r="F66" t="b">
-        <v>1</v>
+      <c r="F66" t="s">
+        <v>103</v>
       </c>
       <c r="G66" t="s">
+        <v>307</v>
+      </c>
+      <c r="H66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -2453,14 +2657,17 @@
       <c r="E67">
         <v>2</v>
       </c>
-      <c r="F67" t="b">
-        <v>1</v>
+      <c r="F67" t="s">
+        <v>106</v>
       </c>
       <c r="G67" t="s">
+        <v>307</v>
+      </c>
+      <c r="H67" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -2470,14 +2677,17 @@
       <c r="E68">
         <v>3</v>
       </c>
-      <c r="F68" t="b">
-        <v>1</v>
+      <c r="F68" t="s">
+        <v>106</v>
       </c>
       <c r="G68" t="s">
+        <v>307</v>
+      </c>
+      <c r="H68" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>198</v>
       </c>
@@ -2487,14 +2697,17 @@
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69" t="b">
-        <v>1</v>
+      <c r="F69" t="s">
+        <v>109</v>
       </c>
       <c r="G69" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>200</v>
       </c>
@@ -2504,14 +2717,17 @@
       <c r="E70">
         <v>3</v>
       </c>
-      <c r="F70" t="b">
-        <v>1</v>
+      <c r="F70" t="s">
+        <v>109</v>
       </c>
       <c r="G70" t="s">
+        <v>307</v>
+      </c>
+      <c r="H70" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -2521,14 +2737,17 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="b">
-        <v>1</v>
+      <c r="F71" t="s">
+        <v>203</v>
       </c>
       <c r="G71" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -2538,14 +2757,17 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="b">
-        <v>1</v>
+      <c r="F72" t="s">
+        <v>206</v>
       </c>
       <c r="G72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -2555,14 +2777,17 @@
       <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73" t="b">
-        <v>1</v>
+      <c r="F73" t="s">
+        <v>206</v>
       </c>
       <c r="G73" t="s">
+        <v>307</v>
+      </c>
+      <c r="H73" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>210</v>
       </c>
@@ -2572,14 +2797,17 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="b">
-        <v>1</v>
+      <c r="F74" t="s">
+        <v>211</v>
       </c>
       <c r="G74" t="s">
+        <v>307</v>
+      </c>
+      <c r="H74" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>213</v>
       </c>
@@ -2589,14 +2817,17 @@
       <c r="E75">
         <v>2</v>
       </c>
-      <c r="F75" t="b">
-        <v>1</v>
+      <c r="F75" t="s">
+        <v>211</v>
       </c>
       <c r="G75" t="s">
+        <v>307</v>
+      </c>
+      <c r="H75" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -2606,14 +2837,17 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" t="b">
-        <v>1</v>
+      <c r="F76" t="s">
+        <v>216</v>
       </c>
       <c r="G76" t="s">
+        <v>307</v>
+      </c>
+      <c r="H76" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -2623,14 +2857,17 @@
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77" t="b">
-        <v>1</v>
+      <c r="F77" t="s">
+        <v>216</v>
       </c>
       <c r="G77" t="s">
+        <v>307</v>
+      </c>
+      <c r="H77" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>220</v>
       </c>
@@ -2640,14 +2877,17 @@
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="F78" t="b">
-        <v>1</v>
+      <c r="F78" t="s">
+        <v>169</v>
       </c>
       <c r="G78" t="s">
+        <v>307</v>
+      </c>
+      <c r="H78" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -2657,14 +2897,17 @@
       <c r="E79">
         <v>3</v>
       </c>
-      <c r="F79" t="b">
-        <v>1</v>
+      <c r="F79" t="s">
+        <v>169</v>
       </c>
       <c r="G79" t="s">
+        <v>307</v>
+      </c>
+      <c r="H79" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -2674,14 +2917,17 @@
       <c r="E80">
         <v>2</v>
       </c>
-      <c r="F80" t="b">
-        <v>1</v>
+      <c r="F80" t="s">
+        <v>124</v>
       </c>
       <c r="G80" t="s">
+        <v>307</v>
+      </c>
+      <c r="H80" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -2691,14 +2937,17 @@
       <c r="E81">
         <v>3</v>
       </c>
-      <c r="F81" t="b">
-        <v>1</v>
+      <c r="F81" t="s">
+        <v>124</v>
       </c>
       <c r="G81" t="s">
+        <v>307</v>
+      </c>
+      <c r="H81" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>228</v>
       </c>
@@ -2708,14 +2957,17 @@
       <c r="E82">
         <v>2</v>
       </c>
-      <c r="F82" t="b">
-        <v>1</v>
+      <c r="F82" t="s">
+        <v>127</v>
       </c>
       <c r="G82" t="s">
+        <v>307</v>
+      </c>
+      <c r="H82" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -2725,14 +2977,17 @@
       <c r="E83">
         <v>3</v>
       </c>
-      <c r="F83" t="b">
-        <v>1</v>
+      <c r="F83" t="s">
+        <v>127</v>
       </c>
       <c r="G83" t="s">
+        <v>307</v>
+      </c>
+      <c r="H83" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -2742,14 +2997,17 @@
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="F84" t="b">
-        <v>1</v>
+      <c r="F84" t="s">
+        <v>130</v>
       </c>
       <c r="G84" t="s">
+        <v>307</v>
+      </c>
+      <c r="H84" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>234</v>
       </c>
@@ -2759,14 +3017,17 @@
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85" t="b">
-        <v>1</v>
+      <c r="F85" t="s">
+        <v>160</v>
       </c>
       <c r="G85" t="s">
+        <v>307</v>
+      </c>
+      <c r="H85" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>236</v>
       </c>
@@ -2776,14 +3037,17 @@
       <c r="E86">
         <v>3</v>
       </c>
-      <c r="F86" t="b">
-        <v>1</v>
+      <c r="F86" t="s">
+        <v>160</v>
       </c>
       <c r="G86" t="s">
+        <v>307</v>
+      </c>
+      <c r="H86" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -2793,14 +3057,17 @@
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" t="b">
-        <v>1</v>
+      <c r="F87" t="s">
+        <v>163</v>
       </c>
       <c r="G87" t="s">
+        <v>307</v>
+      </c>
+      <c r="H87" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>240</v>
       </c>
@@ -2810,14 +3077,17 @@
       <c r="E88">
         <v>3</v>
       </c>
-      <c r="F88" t="b">
-        <v>1</v>
+      <c r="F88" t="s">
+        <v>163</v>
       </c>
       <c r="G88" t="s">
+        <v>307</v>
+      </c>
+      <c r="H88" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>242</v>
       </c>
@@ -2827,14 +3097,17 @@
       <c r="E89">
         <v>2</v>
       </c>
-      <c r="F89" t="b">
-        <v>1</v>
+      <c r="F89" t="s">
+        <v>172</v>
       </c>
       <c r="G89" t="s">
+        <v>307</v>
+      </c>
+      <c r="H89" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>244</v>
       </c>
@@ -2844,14 +3117,17 @@
       <c r="E90">
         <v>3</v>
       </c>
-      <c r="F90" t="b">
-        <v>1</v>
+      <c r="F90" t="s">
+        <v>172</v>
       </c>
       <c r="G90" t="s">
+        <v>307</v>
+      </c>
+      <c r="H90" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>246</v>
       </c>
@@ -2861,14 +3137,17 @@
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="F91" t="b">
-        <v>1</v>
+      <c r="F91" t="s">
+        <v>166</v>
       </c>
       <c r="G91" t="s">
+        <v>307</v>
+      </c>
+      <c r="H91" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>248</v>
       </c>
@@ -2878,14 +3157,17 @@
       <c r="E92">
         <v>2</v>
       </c>
-      <c r="F92" t="b">
-        <v>1</v>
+      <c r="F92" t="s">
+        <v>94</v>
       </c>
       <c r="G92" t="s">
+        <v>307</v>
+      </c>
+      <c r="H92" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>250</v>
       </c>
@@ -2895,14 +3177,17 @@
       <c r="E93">
         <v>3</v>
       </c>
-      <c r="F93" t="b">
-        <v>1</v>
+      <c r="F93" t="s">
+        <v>94</v>
       </c>
       <c r="G93" t="s">
+        <v>307</v>
+      </c>
+      <c r="H93" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>252</v>
       </c>
@@ -2912,14 +3197,17 @@
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" t="b">
-        <v>1</v>
+      <c r="F94" t="s">
+        <v>253</v>
       </c>
       <c r="G94" t="s">
+        <v>307</v>
+      </c>
+      <c r="H94" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -2929,14 +3217,17 @@
       <c r="E95">
         <v>2</v>
       </c>
-      <c r="F95" t="b">
-        <v>1</v>
+      <c r="F95" t="s">
+        <v>253</v>
       </c>
       <c r="G95" t="s">
+        <v>307</v>
+      </c>
+      <c r="H95" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -2946,14 +3237,17 @@
       <c r="E96">
         <v>2</v>
       </c>
-      <c r="F96" t="b">
-        <v>1</v>
+      <c r="F96" t="s">
+        <v>203</v>
       </c>
       <c r="G96" t="s">
+        <v>307</v>
+      </c>
+      <c r="H96" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -2963,14 +3257,17 @@
       <c r="E97">
         <v>3</v>
       </c>
-      <c r="F97" t="b">
-        <v>1</v>
+      <c r="F97" t="s">
+        <v>166</v>
       </c>
       <c r="G97" t="s">
+        <v>307</v>
+      </c>
+      <c r="H97" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>261</v>
       </c>
@@ -2980,14 +3277,17 @@
       <c r="E98">
         <v>2</v>
       </c>
-      <c r="F98" t="b">
-        <v>1</v>
+      <c r="F98" t="s">
+        <v>112</v>
       </c>
       <c r="G98" t="s">
+        <v>307</v>
+      </c>
+      <c r="H98" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -2997,14 +3297,17 @@
       <c r="E99">
         <v>3</v>
       </c>
-      <c r="F99" t="b">
-        <v>1</v>
+      <c r="F99" t="s">
+        <v>112</v>
       </c>
       <c r="G99" t="s">
+        <v>307</v>
+      </c>
+      <c r="H99" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>265</v>
       </c>
@@ -3014,14 +3317,17 @@
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" t="b">
-        <v>1</v>
+      <c r="F100" t="s">
+        <v>115</v>
       </c>
       <c r="G100" t="s">
+        <v>307</v>
+      </c>
+      <c r="H100" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>267</v>
       </c>
@@ -3031,14 +3337,17 @@
       <c r="E101">
         <v>3</v>
       </c>
-      <c r="F101" t="b">
-        <v>1</v>
+      <c r="F101" t="s">
+        <v>115</v>
       </c>
       <c r="G101" t="s">
+        <v>307</v>
+      </c>
+      <c r="H101" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>269</v>
       </c>
@@ -3048,14 +3357,17 @@
       <c r="E102">
         <v>2</v>
       </c>
-      <c r="F102" t="b">
-        <v>1</v>
+      <c r="F102" t="s">
+        <v>118</v>
       </c>
       <c r="G102" t="s">
+        <v>307</v>
+      </c>
+      <c r="H102" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -3065,14 +3377,17 @@
       <c r="E103">
         <v>3</v>
       </c>
-      <c r="F103" t="b">
-        <v>1</v>
+      <c r="F103" t="s">
+        <v>118</v>
       </c>
       <c r="G103" t="s">
+        <v>307</v>
+      </c>
+      <c r="H103" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -3082,14 +3397,17 @@
       <c r="E104">
         <v>3</v>
       </c>
-      <c r="F104" t="b">
-        <v>1</v>
+      <c r="F104" t="s">
+        <v>121</v>
       </c>
       <c r="G104" t="s">
+        <v>307</v>
+      </c>
+      <c r="H104" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>275</v>
       </c>
@@ -3099,14 +3417,17 @@
       <c r="E105">
         <v>2</v>
       </c>
-      <c r="F105" t="b">
-        <v>1</v>
+      <c r="F105" t="s">
+        <v>97</v>
       </c>
       <c r="G105" t="s">
+        <v>307</v>
+      </c>
+      <c r="H105" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>277</v>
       </c>
@@ -3116,14 +3437,17 @@
       <c r="E106">
         <v>3</v>
       </c>
-      <c r="F106" t="b">
-        <v>1</v>
+      <c r="F106" t="s">
+        <v>97</v>
       </c>
       <c r="G106" t="s">
+        <v>307</v>
+      </c>
+      <c r="H106" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>279</v>
       </c>
@@ -3133,14 +3457,17 @@
       <c r="E107">
         <v>3</v>
       </c>
-      <c r="F107" t="b">
-        <v>1</v>
+      <c r="F107" t="s">
+        <v>100</v>
       </c>
       <c r="G107" t="s">
+        <v>307</v>
+      </c>
+      <c r="H107" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>281</v>
       </c>
@@ -3150,14 +3477,17 @@
       <c r="E108">
         <v>3</v>
       </c>
-      <c r="F108" t="b">
-        <v>1</v>
+      <c r="F108" t="s">
+        <v>130</v>
       </c>
       <c r="G108" t="s">
+        <v>307</v>
+      </c>
+      <c r="H108" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>283</v>
       </c>
@@ -3167,14 +3497,17 @@
       <c r="E109">
         <v>2</v>
       </c>
-      <c r="F109" t="b">
-        <v>1</v>
+      <c r="F109" t="s">
+        <v>133</v>
       </c>
       <c r="G109" t="s">
+        <v>307</v>
+      </c>
+      <c r="H109" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>285</v>
       </c>
@@ -3184,14 +3517,17 @@
       <c r="E110">
         <v>3</v>
       </c>
-      <c r="F110" t="b">
-        <v>1</v>
+      <c r="F110" t="s">
+        <v>133</v>
       </c>
       <c r="G110" t="s">
+        <v>307</v>
+      </c>
+      <c r="H110" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3201,14 +3537,17 @@
       <c r="E111">
         <v>2</v>
       </c>
-      <c r="F111" t="b">
-        <v>1</v>
+      <c r="F111" t="s">
+        <v>136</v>
       </c>
       <c r="G111" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>289</v>
       </c>
@@ -3218,14 +3557,17 @@
       <c r="E112">
         <v>3</v>
       </c>
-      <c r="F112" t="b">
-        <v>1</v>
+      <c r="F112" t="s">
+        <v>136</v>
       </c>
       <c r="G112" t="s">
+        <v>307</v>
+      </c>
+      <c r="H112" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>291</v>
       </c>
@@ -3235,14 +3577,17 @@
       <c r="E113">
         <v>2</v>
       </c>
-      <c r="F113" t="b">
-        <v>1</v>
+      <c r="F113" t="s">
+        <v>139</v>
       </c>
       <c r="G113" t="s">
+        <v>307</v>
+      </c>
+      <c r="H113" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>293</v>
       </c>
@@ -3252,14 +3597,17 @@
       <c r="E114">
         <v>3</v>
       </c>
-      <c r="F114" t="b">
-        <v>1</v>
+      <c r="F114" t="s">
+        <v>139</v>
       </c>
       <c r="G114" t="s">
+        <v>307</v>
+      </c>
+      <c r="H114" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>295</v>
       </c>
@@ -3269,14 +3617,17 @@
       <c r="E115">
         <v>2</v>
       </c>
-      <c r="F115" t="b">
-        <v>1</v>
+      <c r="F115" t="s">
+        <v>142</v>
       </c>
       <c r="G115" t="s">
+        <v>307</v>
+      </c>
+      <c r="H115" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>297</v>
       </c>
@@ -3286,14 +3637,17 @@
       <c r="E116">
         <v>3</v>
       </c>
-      <c r="F116" t="b">
-        <v>1</v>
+      <c r="F116" t="s">
+        <v>142</v>
       </c>
       <c r="G116" t="s">
+        <v>307</v>
+      </c>
+      <c r="H116" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>299</v>
       </c>
@@ -3303,14 +3657,17 @@
       <c r="E117">
         <v>2</v>
       </c>
-      <c r="F117" t="b">
-        <v>1</v>
+      <c r="F117" t="s">
+        <v>145</v>
       </c>
       <c r="G117" t="s">
+        <v>307</v>
+      </c>
+      <c r="H117" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>301</v>
       </c>
@@ -3320,14 +3677,17 @@
       <c r="E118">
         <v>3</v>
       </c>
-      <c r="F118" t="b">
-        <v>1</v>
+      <c r="F118" t="s">
+        <v>145</v>
       </c>
       <c r="G118" t="s">
+        <v>307</v>
+      </c>
+      <c r="H118" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>303</v>
       </c>
@@ -3337,14 +3697,17 @@
       <c r="E119">
         <v>2</v>
       </c>
-      <c r="F119" t="b">
-        <v>1</v>
+      <c r="F119" t="s">
+        <v>148</v>
       </c>
       <c r="G119" t="s">
+        <v>307</v>
+      </c>
+      <c r="H119" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -3354,10 +3717,13 @@
       <c r="E120">
         <v>3</v>
       </c>
-      <c r="F120" t="b">
-        <v>1</v>
+      <c r="F120" t="s">
+        <v>148</v>
       </c>
       <c r="G120" t="s">
+        <v>307</v>
+      </c>
+      <c r="H120" t="s">
         <v>306</v>
       </c>
     </row>
